--- a/microservices/download templates/src/templatesStorage/basicColumnTemplate.xlsx
+++ b/microservices/download templates/src/templatesStorage/basicColumnTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORA\Documents\GitHub\SaaS23-60\microservices\download templates\src\templatesStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A303E-BA42-40A5-917D-0A3449A649DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D14BA-F6DD-4F15-AFAC-52169C61B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46EB44D5-4E4C-4FBF-9B9B-9B8682C03FE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Chart's Title</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>basicColumn</t>
+  </si>
+  <si>
+    <t>ChartName</t>
   </si>
 </sst>
 </file>
@@ -175,15 +178,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +505,7 @@
   <dimension ref="A1:BY462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,12 +513,12 @@
     <col min="1" max="46" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,10 +532,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,16 +551,16 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -562,17 +568,17 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="19:19" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="19:19" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="19:19" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -13892,7 +13898,7 @@
       <c r="BY462" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sE8TY+9g4/7dCtUYLxdSJbaefGs+sK5dqeixk6trifn3XErDdkTBUqV/Wji8X3WC43pV+UHl3/0p9veIB+VIng==" saltValue="01Hv6OqAegZR8wZrnTNGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="grJ6j9Pg3fR0ozyFbWId1iGPDl+m/wcgohlsBFVdFPlu3vLW2Q2diNvdtQZ4Y/z885xl+QQPzwXqYSHB89EeWw==" saltValue="Iwv+UuEJEwdeanhrSECMnw==" spinCount="100000" sqref="A1:XFD2" name="Range1"/>
   </protectedRanges>
